--- a/biology/Médecine/Bert_Sakmann/Bert_Sakmann.xlsx
+++ b/biology/Médecine/Bert_Sakmann/Bert_Sakmann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bert Sakmann, né le 12 juin 1942 à Stuttgart, est un médecin allemand. Il reçut conjointement avec Erwin Neher le prix Nobel de physiologie ou médecine, pour le développement de la technique du patch-clamp.
 Bert Sackmann est professeur et directeur du département de physiologie cellulaire au Max-Planck-Institut pour la recherche médicale de Heidelberg.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il obtint son baccalauréat en 1961 au lycée Wagenburg de Stuttgart. Puis il étudia la médecine jusqu'en 1967 aux universités de Tübingen, Freiburg, Berlin, Paris et Munich. Après avoir obtenu ses examens de médecine à l'université Louis-et-Maximilien de Munich, il fut médecin assistant à l'université de Munich et chercheur assistant à l'institut Max Planck pour la psychiatrie de Munich, dans le département de neurophysiologie auprès de Otto Detlev Creutzfeldt. En 1971, il partit au département de biophysique de Bernard Katz de l'university College de Londres. En 1974, il termina sa thèse de médecine à l'université de Göttingen ayant le titre : "Electrophysiologie de l'adaptation à la lumière dans la rétine des chats".
 En 1974, il retrouva Otto Creutzfeldt au Max-Planck Institut pour la chimie biophysique à Göttingen. À partir de 1979, il était chercheur permanent dans le département de biologie des membranes.
